--- a/DallasDesignSprint/ScrapingOutput/locations/PacificPlaza/PacificPlaza.xlsx
+++ b/DallasDesignSprint/ScrapingOutput/locations/PacificPlaza/PacificPlaza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>32.7777132</v>
+        <v>32.7834406</v>
       </c>
       <c r="F2" t="n">
-        <v>-96.8155783</v>
+        <v>-96.79596600000001</v>
       </c>
     </row>
     <row r="3">
@@ -515,10 +515,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>32.7777132</v>
+        <v>32.7834406</v>
       </c>
       <c r="F3" t="n">
-        <v>-96.8155783</v>
+        <v>-96.79596600000001</v>
       </c>
     </row>
     <row r="4">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.7777132</v>
+        <v>32.7834406</v>
       </c>
       <c r="F4" t="n">
-        <v>-96.8155783</v>
+        <v>-96.79596600000001</v>
       </c>
     </row>
     <row r="5">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>32.7777132</v>
+        <v>32.7834406</v>
       </c>
       <c r="F5" t="n">
-        <v>-96.8155783</v>
+        <v>-96.79596600000001</v>
       </c>
     </row>
     <row r="6">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>32.7777132</v>
+        <v>32.7834406</v>
       </c>
       <c r="F6" t="n">
-        <v>-96.8155783</v>
+        <v>-96.79596600000001</v>
       </c>
     </row>
     <row r="7">
@@ -628,10 +628,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32.7777132</v>
+        <v>32.7834406</v>
       </c>
       <c r="F7" t="n">
-        <v>-96.8155783</v>
+        <v>-96.79596600000001</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>32.7777132</v>
+        <v>32.7834406</v>
       </c>
       <c r="F8" t="n">
-        <v>-96.8155783</v>
+        <v>-96.79596600000001</v>
       </c>
     </row>
     <row r="9">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.7777132</v>
+        <v>32.7834406</v>
       </c>
       <c r="F9" t="n">
-        <v>-96.8155783</v>
+        <v>-96.79596600000001</v>
       </c>
     </row>
     <row r="10">
@@ -708,14 +708,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2 weeks ago</t>
+          <t>3 weeks ago</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.7777132</v>
+        <v>32.7834406</v>
       </c>
       <c r="F10" t="n">
-        <v>-96.8155783</v>
+        <v>-96.79596600000001</v>
       </c>
     </row>
     <row r="11">
@@ -742,10 +742,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.7777132</v>
+        <v>32.7834406</v>
       </c>
       <c r="F11" t="n">
-        <v>-96.8155783</v>
+        <v>-96.79596600000001</v>
       </c>
     </row>
     <row r="12">
@@ -770,10 +770,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>32.7777132</v>
+        <v>32.7834406</v>
       </c>
       <c r="F12" t="n">
-        <v>-96.8155783</v>
+        <v>-96.79596600000001</v>
       </c>
     </row>
     <row r="13">
@@ -798,10 +798,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32.7777132</v>
+        <v>32.7834406</v>
       </c>
       <c r="F13" t="n">
-        <v>-96.8155783</v>
+        <v>-96.79596600000001</v>
       </c>
     </row>
     <row r="14">
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>32.7777132</v>
+        <v>32.7834406</v>
       </c>
       <c r="F14" t="n">
-        <v>-96.8155783</v>
+        <v>-96.79596600000001</v>
       </c>
     </row>
     <row r="15">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>32.7777132</v>
+        <v>32.7834406</v>
       </c>
       <c r="F15" t="n">
-        <v>-96.8155783</v>
+        <v>-96.79596600000001</v>
       </c>
     </row>
     <row r="16">
@@ -884,10 +884,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32.7777132</v>
+        <v>32.7834406</v>
       </c>
       <c r="F16" t="n">
-        <v>-96.8155783</v>
+        <v>-96.79596600000001</v>
       </c>
     </row>
     <row r="17">
@@ -912,10 +912,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>32.7777132</v>
+        <v>32.7834406</v>
       </c>
       <c r="F17" t="n">
-        <v>-96.8155783</v>
+        <v>-96.79596600000001</v>
       </c>
     </row>
     <row r="18">
@@ -940,10 +940,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>32.7777132</v>
+        <v>32.7834406</v>
       </c>
       <c r="F18" t="n">
-        <v>-96.8155783</v>
+        <v>-96.79596600000001</v>
       </c>
     </row>
     <row r="19">
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.7777132</v>
+        <v>32.7834406</v>
       </c>
       <c r="F19" t="n">
-        <v>-96.8155783</v>
+        <v>-96.79596600000001</v>
       </c>
     </row>
     <row r="20">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>32.7777132</v>
+        <v>32.7834406</v>
       </c>
       <c r="F20" t="n">
-        <v>-96.8155783</v>
+        <v>-96.79596600000001</v>
       </c>
     </row>
     <row r="21">
@@ -1024,10 +1024,571 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>32.7777132</v>
+        <v>32.7834406</v>
       </c>
       <c r="F21" t="n">
-        <v>-96.8155783</v>
+        <v>-96.79596600000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Lonnie Wright</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>We went to the no Kings protest number 2 there it was nice it rained that day quite hard for a little while</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>a month ago</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>32.7834406</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-96.79596600000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Aleisha Rutherford</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>No shade on playground. Nice area but not suitable for children during the day when it’s hot out.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>a year ago</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>32.7834406</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-96.79596600000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Judith Rojo-Gaxiola</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Great Park to relax in Down Town, pet friendly, very enjoyable +32</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5 years ago</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>32.7834406</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-96.79596600000001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Tasnim Ara Islam</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>The 3.7 acre Pacific Plaza is a public park in Downtown Dallas.  This urban oaisis provides a grassy respite amongst the oversized downtown buildings. The park offers multi-purpose central lawn, playgrounds, etc. The park’s 95-by-138-foot pavilion has a steel panel pierced with the morse code signature of every local stop along the Texas and Pacific Railroad between New Orleans and El Paso. That is really impressive.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2 years ago</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>32.7834406</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-96.79596600000001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Shayer S</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nice little green space near the hotels. Enough space to let the kids run around under watchful eyes and not be worried about traffic.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4 years ago</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>32.7834406</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-96.79596600000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Steve D</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Beautiful architecture in Dallas downtown, so much of open space.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3 years ago</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>32.7834406</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-96.79596600000001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Javier Olivarez</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Puptopia was held here and Dexter really enjoyed himself! Hope more events are held at this plaza!</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4 years ago</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>32.7834406</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-96.79596600000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Yo Passion</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nice swings , places to sit with table and chairs also good trails and pretty Xmas lights already .. i usually come down here and swing and look at the high-rises. It’s very nice.
+one of my favorite parks in Dallas.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2 years ago</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>32.7834406</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-96.79596600000001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Self University (SELF UNIVERSITY)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Is a Great Plaze to spend when your family!</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2 months ago</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>32.7834406</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-96.79596600000001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Eric Larsen</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Great park outside the smell of weed +3</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>a year ago</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>32.7834406</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-96.79596600000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Kain Bowman</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10 months ago</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>32.7834406</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-96.79596600000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Juliana Chesser</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>This is such a lovely park to hang out! A hidden gem ♡</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3 years ago</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>32.7834406</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-96.79596600000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Angela Smith</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>This downtown park has a fantastic view. It looks</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2 years ago</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>32.7834406</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-96.79596600000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>jhonny Sanabria</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>💉🩸🩹🧊🦠🚬👎 …</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2 months ago</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>32.7834406</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-96.79596600000001</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Asia Boyd</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Y’all got homeless people sleep on the park where kids supposed to be able to play at</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>a year ago</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>32.7834406</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-96.79596600000001</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Tommy Tom</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>A very nice and quiet outer space that is open but you feel safe and secure and don't have to worry about being around anyone but whom you are with. This place is perfect for a intimate anything or a meeting location or Study or just to sit and live to best life while downtown dallas.... TRY it</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3 years ago</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>32.7834406</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-96.79596600000001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Jeff Clarkson</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Beautiful park, open space, great place to relax!</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4 years ago</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>32.7834406</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-96.79596600000001</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>momo morris</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nice little park to chill. Nice scenery.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3 years ago</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>32.7834406</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-96.79596600000001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>jasean cajunboi</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Well it's a wonderful park and I really enjoy the scenery. But the bathroom has been down for almost two weeks now and its not far that we as the public people who pay tax dollars to come to a park ware the bathroom is not properly fixed and it's still closed. Please fix this issue ware people's can use the bathroom. Thank you.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4 years ago</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>32.7834406</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-96.79596600000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Kaitlyn Nicholson</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Do not go here unless you</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2 years ago</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>32.7834406</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-96.79596600000001</v>
       </c>
     </row>
   </sheetData>
